--- a/test/SMART/MOTHER.xlsx
+++ b/test/SMART/MOTHER.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26519"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="20115" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$3:$U$737</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>RPSMART</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="I2" authorId="0">
@@ -29,18 +34,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Est-ce que la mère a consulté quelqu'un pendant sa dernière grossesse?</t>
@@ -53,18 +56,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1: mere
@@ -80,18 +81,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 : oui
@@ -105,18 +104,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1: oui
@@ -131,18 +128,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1: oui
@@ -156,18 +151,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1: oui
@@ -181,18 +174,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1: oui
@@ -206,18 +197,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 : A domicile 
@@ -233,18 +222,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 : CSB ou hôpital
@@ -261,18 +248,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>RPSMART:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1: Oui 
@@ -289,19 +274,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CONTRACEPTION</t>
-  </si>
-  <si>
     <t>CONSULTATION GROSSESSE</t>
   </si>
   <si>
     <t>GROSSESSE</t>
   </si>
   <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>EQUIPE</t>
+  </si>
+  <si>
+    <t>COMMUNE</t>
   </si>
   <si>
     <t>GRAPPE</t>
@@ -346,10 +331,10 @@
     <t>NSP</t>
   </si>
   <si>
-    <t>CHARGE PROBLEME</t>
+    <t>CONTRACEPTION</t>
   </si>
   <si>
-    <t>COMMUNE</t>
+    <t>CHARGE PROBLEME</t>
   </si>
 </sst>
 </file>
@@ -362,26 +347,22 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,9 +370,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE5DFEC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -405,29 +389,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,21 +420,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,17 +442,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,32 +735,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U739"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="H1" sqref="H1:N1"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="10" width="17.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.28515625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.42578125" style="1"/>
-    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" customWidth="1"/>
+    <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="19" max="19" width="22.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1">
-        <f>SUBTOTAL(3,A4:A737)</f>
+        <f t="shared" ref="A1:U1" si="0">SUBTOTAL(3,A4:A737)</f>
         <v>734</v>
       </c>
       <c r="B1" s="1">
-        <f t="shared" ref="B1:U1" si="0">SUBTOTAL(3,B4:B737)</f>
+        <f t="shared" si="0"/>
         <v>734</v>
       </c>
       <c r="C1" s="1">
@@ -861,9 +839,9 @@
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="I2" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -874,19 +852,19 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -937,13 +915,13 @@
         <v>18</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>41739</v>
       </c>
@@ -1002,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>41739</v>
       </c>
@@ -1061,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>41739</v>
       </c>
@@ -1117,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>41739</v>
       </c>
@@ -1176,7 +1154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>41739</v>
       </c>
@@ -1235,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>41739</v>
       </c>
@@ -1294,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>41739</v>
       </c>
@@ -1353,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>41739</v>
       </c>
@@ -1412,7 +1390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>41739</v>
       </c>
@@ -1471,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>41739</v>
       </c>
@@ -1527,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>41739</v>
       </c>
@@ -1586,7 +1564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="2">
         <v>41739</v>
       </c>
@@ -1645,7 +1623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="2">
         <v>41739</v>
       </c>
@@ -1704,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>41739</v>
       </c>
@@ -1763,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="7" customFormat="1">
       <c r="A18" s="8">
         <v>41751</v>
       </c>
@@ -1819,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="2">
         <v>41751</v>
       </c>
@@ -1875,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>41751</v>
       </c>
@@ -1931,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>41751</v>
       </c>
@@ -1987,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>41751</v>
       </c>
@@ -2043,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>41751</v>
       </c>
@@ -2099,7 +2077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>41751</v>
       </c>
@@ -2155,7 +2133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>41751</v>
       </c>
@@ -2211,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <v>41751</v>
       </c>
@@ -2267,7 +2245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>41740</v>
       </c>
@@ -2326,7 +2304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>41740</v>
       </c>
@@ -2385,7 +2363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>41740</v>
       </c>
@@ -2444,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>41740</v>
       </c>
@@ -2503,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>41740</v>
       </c>
@@ -2562,7 +2540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>41740</v>
       </c>
@@ -2618,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="2">
         <v>41740</v>
       </c>
@@ -2677,7 +2655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="2">
         <v>41740</v>
       </c>
@@ -2736,7 +2714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="2">
         <v>41740</v>
       </c>
@@ -2795,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" s="2">
         <v>41740</v>
       </c>
@@ -2854,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37" s="2">
         <v>41740</v>
       </c>
@@ -2913,7 +2891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" s="2">
         <v>41740</v>
       </c>
@@ -2972,7 +2950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" s="2">
         <v>41739</v>
       </c>
@@ -3028,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" s="2">
         <v>41739</v>
       </c>
@@ -3084,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" s="2">
         <v>41739</v>
       </c>
@@ -3140,7 +3118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21">
       <c r="A42" s="2">
         <v>41739</v>
       </c>
@@ -3196,7 +3174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21">
       <c r="A43" s="2">
         <v>41739</v>
       </c>
@@ -3252,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" s="2">
         <v>41739</v>
       </c>
@@ -3308,7 +3286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21">
       <c r="A45" s="2">
         <v>41739</v>
       </c>
@@ -3364,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="A46" s="2">
         <v>41739</v>
       </c>
@@ -3420,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21">
       <c r="A47" s="2">
         <v>41739</v>
       </c>
@@ -3476,7 +3454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21">
       <c r="A48" s="2">
         <v>41739</v>
       </c>
@@ -3532,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="A49" s="2">
         <v>41739</v>
       </c>
@@ -3588,7 +3566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="A50" s="2">
         <v>41739</v>
       </c>
@@ -3644,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21">
       <c r="A51" s="2">
         <v>41739</v>
       </c>
@@ -3700,7 +3678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21">
       <c r="A52" s="2">
         <v>41739</v>
       </c>
@@ -3756,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21">
       <c r="A53" s="2">
         <v>41740</v>
       </c>
@@ -3812,7 +3790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21">
       <c r="A54" s="2">
         <v>41740</v>
       </c>
@@ -3868,7 +3846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21">
       <c r="A55" s="2">
         <v>41740</v>
       </c>
@@ -3924,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21">
       <c r="A56" s="2">
         <v>41740</v>
       </c>
@@ -3974,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" s="2">
         <v>41740</v>
       </c>
@@ -4030,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21">
       <c r="A58" s="2">
         <v>41740</v>
       </c>
@@ -4083,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21">
       <c r="A59" s="2">
         <v>41740</v>
       </c>
@@ -4139,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21">
       <c r="A60" s="2">
         <v>41740</v>
       </c>
@@ -4195,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21">
       <c r="A61" s="2">
         <v>41740</v>
       </c>
@@ -4251,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21">
       <c r="A62" s="2">
         <v>41740</v>
       </c>
@@ -4307,7 +4285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21">
       <c r="A63" s="2">
         <v>41752</v>
       </c>
@@ -4366,7 +4344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64" s="2">
         <v>41752</v>
       </c>
@@ -4425,7 +4403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21">
       <c r="A65" s="2">
         <v>41752</v>
       </c>
@@ -4484,7 +4462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21">
       <c r="A66" s="2">
         <v>41752</v>
       </c>
@@ -4543,7 +4521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21">
       <c r="A67" s="2">
         <v>41752</v>
       </c>
@@ -4599,7 +4577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21">
       <c r="A68" s="2">
         <v>41752</v>
       </c>
@@ -4658,7 +4636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21">
       <c r="A69" s="2">
         <v>41752</v>
       </c>
@@ -4717,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21">
       <c r="A70" s="2">
         <v>41752</v>
       </c>
@@ -4773,7 +4751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21">
       <c r="A71" s="2">
         <v>41752</v>
       </c>
@@ -4832,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21">
       <c r="A72" s="2">
         <v>41752</v>
       </c>
@@ -4891,7 +4869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21">
       <c r="A73" s="2">
         <v>41752</v>
       </c>
@@ -4947,7 +4925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21">
       <c r="A74" s="2">
         <v>41752</v>
       </c>
@@ -5006,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21">
       <c r="A75" s="2">
         <v>41752</v>
       </c>
@@ -5065,7 +5043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21">
       <c r="A76" s="2">
         <v>41752</v>
       </c>
@@ -5124,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21">
       <c r="A77" s="2">
         <v>41752</v>
       </c>
@@ -5183,7 +5161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21">
       <c r="A78" s="2">
         <v>41752</v>
       </c>
@@ -5242,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21">
       <c r="A79" s="2">
         <v>41752</v>
       </c>
@@ -5301,7 +5279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21">
       <c r="A80" s="2">
         <v>41752</v>
       </c>
@@ -5360,7 +5338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21">
       <c r="A81" s="2">
         <v>41752</v>
       </c>
@@ -5419,7 +5397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="A82" s="2">
         <v>41752</v>
       </c>
@@ -5478,7 +5456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21">
       <c r="A83" s="2">
         <v>41752</v>
       </c>
@@ -5537,7 +5515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21">
       <c r="A84" s="2">
         <v>41752</v>
       </c>
@@ -5596,7 +5574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="A85" s="2">
         <v>41752</v>
       </c>
@@ -5655,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21">
       <c r="A86" s="2">
         <v>41752</v>
       </c>
@@ -5711,7 +5689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21">
       <c r="A87" s="2">
         <v>41752</v>
       </c>
@@ -5770,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21">
       <c r="A88" s="2">
         <v>41752</v>
       </c>
@@ -5829,7 +5807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21">
       <c r="A89" s="2">
         <v>41752</v>
       </c>
@@ -5885,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21">
       <c r="A90" s="2">
         <v>41752</v>
       </c>
@@ -5944,7 +5922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21">
       <c r="A91" s="2">
         <v>41752</v>
       </c>
@@ -5997,7 +5975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21">
       <c r="A92" s="2">
         <v>41752</v>
       </c>
@@ -6053,7 +6031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21">
       <c r="A93" s="2">
         <v>41752</v>
       </c>
@@ -6112,7 +6090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21">
       <c r="A94" s="2">
         <v>41752</v>
       </c>
@@ -6171,7 +6149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="A95" s="2">
         <v>41752</v>
       </c>
@@ -6230,7 +6208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21">
       <c r="A96" s="2">
         <v>41752</v>
       </c>
@@ -6289,7 +6267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21">
       <c r="A97" s="2">
         <v>41752</v>
       </c>
@@ -6348,7 +6326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21">
       <c r="A98" s="2">
         <v>41752</v>
       </c>
@@ -6404,7 +6382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21">
       <c r="A99" s="2">
         <v>41752</v>
       </c>
@@ -6463,7 +6441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21">
       <c r="A100" s="2">
         <v>41740</v>
       </c>
@@ -6519,7 +6497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" s="7" customFormat="1">
       <c r="A101" s="8">
         <v>41740</v>
       </c>
@@ -6578,7 +6556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21">
       <c r="A102" s="2">
         <v>41740</v>
       </c>
@@ -6634,7 +6612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21">
       <c r="A103" s="2">
         <v>41740</v>
       </c>
@@ -6690,7 +6668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21">
       <c r="A104" s="2">
         <v>41740</v>
       </c>
@@ -6746,7 +6724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21">
       <c r="A105" s="2">
         <v>41740</v>
       </c>
@@ -6805,7 +6783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21">
       <c r="A106" s="2">
         <v>41739</v>
       </c>
@@ -6861,7 +6839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21">
       <c r="A107" s="2">
         <v>41739</v>
       </c>
@@ -6917,7 +6895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21">
       <c r="A108" s="2">
         <v>41739</v>
       </c>
@@ -6973,7 +6951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21">
       <c r="A109" s="2">
         <v>41739</v>
       </c>
@@ -7032,7 +7010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21">
       <c r="A110" s="2">
         <v>41739</v>
       </c>
@@ -7088,7 +7066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21">
       <c r="A111" s="2">
         <v>41739</v>
       </c>
@@ -7147,7 +7125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21">
       <c r="A112" s="2">
         <v>41739</v>
       </c>
@@ -7206,7 +7184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21">
       <c r="A113" s="2">
         <v>41739</v>
       </c>
@@ -7265,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21">
       <c r="A114" s="2">
         <v>41739</v>
       </c>
@@ -7324,7 +7302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21">
       <c r="A115" s="2">
         <v>41739</v>
       </c>
@@ -7383,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21">
       <c r="A116" s="2">
         <v>41739</v>
       </c>
@@ -7442,7 +7420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21">
       <c r="A117" s="2">
         <v>41739</v>
       </c>
@@ -7498,7 +7476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21">
       <c r="A118" s="2">
         <v>41740</v>
       </c>
@@ -7557,7 +7535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21">
       <c r="A119" s="2">
         <v>41740</v>
       </c>
@@ -7616,7 +7594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21">
       <c r="A120" s="2">
         <v>41740</v>
       </c>
@@ -7672,7 +7650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21">
       <c r="A121" s="2">
         <v>41740</v>
       </c>
@@ -7731,7 +7709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21">
       <c r="A122" s="2">
         <v>41740</v>
       </c>
@@ -7790,7 +7768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21">
       <c r="A123" s="2">
         <v>41740</v>
       </c>
@@ -7849,7 +7827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21">
       <c r="A124" s="2">
         <v>41740</v>
       </c>
@@ -7902,7 +7880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21">
       <c r="A125" s="2">
         <v>41740</v>
       </c>
@@ -7961,7 +7939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21">
       <c r="A126" s="2">
         <v>41740</v>
       </c>
@@ -8020,7 +7998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21">
       <c r="A127" s="2">
         <v>41740</v>
       </c>
@@ -8076,7 +8054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21">
       <c r="A128" s="2">
         <v>41740</v>
       </c>
@@ -8135,7 +8113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21">
       <c r="A129" s="2">
         <v>41738</v>
       </c>
@@ -8191,7 +8169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21">
       <c r="A130" s="2">
         <v>41738</v>
       </c>
@@ -8247,7 +8225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21">
       <c r="A131" s="2">
         <v>41738</v>
       </c>
@@ -8303,7 +8281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21">
       <c r="A132" s="2">
         <v>41738</v>
       </c>
@@ -8356,7 +8334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21">
       <c r="A133" s="2">
         <v>41738</v>
       </c>
@@ -8409,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21">
       <c r="A134" s="2">
         <v>41738</v>
       </c>
@@ -8462,7 +8440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21">
       <c r="A135" s="2">
         <v>41738</v>
       </c>
@@ -8515,7 +8493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21">
       <c r="A136" s="2">
         <v>41752</v>
       </c>
@@ -8571,7 +8549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21">
       <c r="A137" s="2">
         <v>41752</v>
       </c>
@@ -8627,7 +8605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21">
       <c r="A138" s="2">
         <v>41752</v>
       </c>
@@ -8683,7 +8661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21">
       <c r="A139" s="2">
         <v>41752</v>
       </c>
@@ -8739,7 +8717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21">
       <c r="A140" s="2">
         <v>41752</v>
       </c>
@@ -8795,7 +8773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21">
       <c r="A141" s="2">
         <v>41752</v>
       </c>
@@ -8851,7 +8829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21">
       <c r="A142" s="2">
         <v>41752</v>
       </c>
@@ -8904,7 +8882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21">
       <c r="A143" s="6">
         <v>41752</v>
       </c>
@@ -8960,7 +8938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21">
       <c r="A144" s="2">
         <v>41752</v>
       </c>
@@ -9016,7 +8994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21">
       <c r="A145" s="2">
         <v>41752</v>
       </c>
@@ -9072,7 +9050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21">
       <c r="A146" s="2">
         <v>41752</v>
       </c>
@@ -9128,7 +9106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21">
       <c r="A147" s="2">
         <v>41752</v>
       </c>
@@ -9184,7 +9162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21">
       <c r="A148" s="2">
         <v>41751</v>
       </c>
@@ -9240,7 +9218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21">
       <c r="A149" s="2">
         <v>41751</v>
       </c>
@@ -9296,7 +9274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21">
       <c r="A150" s="2">
         <v>41751</v>
       </c>
@@ -9352,7 +9330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21">
       <c r="A151" s="2">
         <v>41751</v>
       </c>
@@ -9408,7 +9386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21">
       <c r="A152" s="2">
         <v>41751</v>
       </c>
@@ -9464,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21">
       <c r="A153" s="2">
         <v>41751</v>
       </c>
@@ -9520,7 +9498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21">
       <c r="A154" s="2">
         <v>41751</v>
       </c>
@@ -9576,7 +9554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21">
       <c r="A155" s="6">
         <v>41751</v>
       </c>
@@ -9632,7 +9610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21">
       <c r="A156" s="2">
         <v>41751</v>
       </c>
@@ -9688,7 +9666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21">
       <c r="A157" s="2">
         <v>41751</v>
       </c>
@@ -9744,7 +9722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21">
       <c r="A158" s="2">
         <v>41751</v>
       </c>
@@ -9797,7 +9775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21">
       <c r="A159" s="2">
         <v>41751</v>
       </c>
@@ -9853,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21">
       <c r="A160" s="2">
         <v>41751</v>
       </c>
@@ -9909,7 +9887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21">
       <c r="A161" s="2">
         <v>41751</v>
       </c>
@@ -9965,7 +9943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21">
       <c r="A162" s="2">
         <v>41751</v>
       </c>
@@ -10024,7 +10002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21">
       <c r="A163" s="2">
         <v>41751</v>
       </c>
@@ -10083,7 +10061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21">
       <c r="A164" s="2">
         <v>41752</v>
       </c>
@@ -10139,7 +10117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21">
       <c r="A165" s="2">
         <v>41752</v>
       </c>
@@ -10195,7 +10173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21">
       <c r="A166" s="2">
         <v>41752</v>
       </c>
@@ -10251,7 +10229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21">
       <c r="A167" s="2">
         <v>41752</v>
       </c>
@@ -10307,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21">
       <c r="A168" s="2">
         <v>41752</v>
       </c>
@@ -10363,7 +10341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21">
       <c r="A169" s="2">
         <v>41752</v>
       </c>
@@ -10419,7 +10397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21">
       <c r="A170" s="2">
         <v>41752</v>
       </c>
@@ -10475,7 +10453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21">
       <c r="A171" s="2">
         <v>41752</v>
       </c>
@@ -10531,7 +10509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21">
       <c r="A172" s="2">
         <v>41752</v>
       </c>
@@ -10587,7 +10565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21">
       <c r="A173" s="2">
         <v>41752</v>
       </c>
@@ -10643,7 +10621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21">
       <c r="A174" s="2">
         <v>41752</v>
       </c>
@@ -10702,7 +10680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21">
       <c r="A175" s="2">
         <v>41752</v>
       </c>
@@ -10761,7 +10739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21">
       <c r="A176" s="2">
         <v>41752</v>
       </c>
@@ -10820,7 +10798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21">
       <c r="A177" s="2">
         <v>41752</v>
       </c>
@@ -10876,7 +10854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21">
       <c r="A178" s="2">
         <v>41752</v>
       </c>
@@ -10932,7 +10910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21">
       <c r="A179" s="2">
         <v>41752</v>
       </c>
@@ -10985,7 +10963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21">
       <c r="A180" s="2">
         <v>41752</v>
       </c>
@@ -11041,7 +11019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21">
       <c r="A181" s="2">
         <v>41752</v>
       </c>
@@ -11097,7 +11075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21">
       <c r="A182" s="2">
         <v>41752</v>
       </c>
@@ -11153,7 +11131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21">
       <c r="A183" s="2">
         <v>41738</v>
       </c>
@@ -11209,7 +11187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21">
       <c r="A184" s="2">
         <v>41738</v>
       </c>
@@ -11265,7 +11243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21">
       <c r="A185" s="2">
         <v>41738</v>
       </c>
@@ -11324,7 +11302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" s="7" customFormat="1">
       <c r="A186" s="8">
         <v>41738</v>
       </c>
@@ -11383,7 +11361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21">
       <c r="A187" s="2">
         <v>41738</v>
       </c>
@@ -11442,7 +11420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21">
       <c r="A188" s="2">
         <v>41738</v>
       </c>
@@ -11498,7 +11476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21">
       <c r="A189" s="2">
         <v>41738</v>
       </c>
@@ -11554,7 +11532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21">
       <c r="A190" s="2">
         <v>41738</v>
       </c>
@@ -11613,7 +11591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21">
       <c r="A191" s="2">
         <v>41738</v>
       </c>
@@ -11666,7 +11644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21">
       <c r="A192" s="2">
         <v>41738</v>
       </c>
@@ -11722,7 +11700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21">
       <c r="A193" s="2">
         <v>41738</v>
       </c>
@@ -11781,7 +11759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21">
       <c r="A194" s="2">
         <v>41738</v>
       </c>
@@ -11840,7 +11818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21">
       <c r="A195" s="2">
         <v>41738</v>
       </c>
@@ -11899,7 +11877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21">
       <c r="A196" s="2">
         <v>41738</v>
       </c>
@@ -11955,7 +11933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21">
       <c r="A197" s="2">
         <v>41738</v>
       </c>
@@ -12014,7 +11992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21">
       <c r="A198" s="2">
         <v>41738</v>
       </c>
@@ -12073,7 +12051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21">
       <c r="A199" s="2">
         <v>41738</v>
       </c>
@@ -12129,7 +12107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21">
       <c r="A200" s="2">
         <v>41738</v>
       </c>
@@ -12182,7 +12160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21">
       <c r="A201" s="2">
         <v>41741</v>
       </c>
@@ -12241,7 +12219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21">
       <c r="A202" s="2">
         <v>41741</v>
       </c>
@@ -12300,7 +12278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21">
       <c r="A203" s="2">
         <v>41741</v>
       </c>
@@ -12353,7 +12331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21">
       <c r="A204" s="2">
         <v>41741</v>
       </c>
@@ -12412,7 +12390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21">
       <c r="A205" s="2">
         <v>41741</v>
       </c>
@@ -12468,7 +12446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21">
       <c r="A206" s="2">
         <v>41741</v>
       </c>
@@ -12524,7 +12502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21">
       <c r="A207" s="2">
         <v>41741</v>
       </c>
@@ -12583,7 +12561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21">
       <c r="A208" s="2">
         <v>41741</v>
       </c>
@@ -12642,7 +12620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21">
       <c r="A209" s="2">
         <v>41741</v>
       </c>
@@ -12695,7 +12673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21">
       <c r="A210" s="2">
         <v>41741</v>
       </c>
@@ -12751,7 +12729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21">
       <c r="A211" s="2">
         <v>41741</v>
       </c>
@@ -12807,7 +12785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21">
       <c r="A212" s="2">
         <v>41741</v>
       </c>
@@ -12863,7 +12841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21">
       <c r="A213" s="2">
         <v>41741</v>
       </c>
@@ -12922,7 +12900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21">
       <c r="A214" s="2">
         <v>41738</v>
       </c>
@@ -12978,7 +12956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21">
       <c r="A215" s="2">
         <v>41738</v>
       </c>
@@ -13034,7 +13012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21">
       <c r="A216" s="2">
         <v>41738</v>
       </c>
@@ -13090,7 +13068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21">
       <c r="A217" s="2">
         <v>41738</v>
       </c>
@@ -13146,7 +13124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21">
       <c r="A218" s="2">
         <v>41738</v>
       </c>
@@ -13202,7 +13180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21">
       <c r="A219" s="2">
         <v>41738</v>
       </c>
@@ -13258,7 +13236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21">
       <c r="A220" s="2">
         <v>41738</v>
       </c>
@@ -13314,7 +13292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21">
       <c r="A221" s="2">
         <v>41738</v>
       </c>
@@ -13367,7 +13345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21">
       <c r="A222" s="2">
         <v>41738</v>
       </c>
@@ -13423,7 +13401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21">
       <c r="A223" s="2">
         <v>41738</v>
       </c>
@@ -13479,7 +13457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21">
       <c r="A224" s="2">
         <v>41738</v>
       </c>
@@ -13535,7 +13513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21">
       <c r="A225" s="2">
         <v>41738</v>
       </c>
@@ -13591,7 +13569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21">
       <c r="A226" s="2">
         <v>41741</v>
       </c>
@@ -13647,7 +13625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21">
       <c r="A227" s="2">
         <v>41741</v>
       </c>
@@ -13703,7 +13681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21">
       <c r="A228" s="2">
         <v>41741</v>
       </c>
@@ -13756,7 +13734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21">
       <c r="A229" s="2">
         <v>41741</v>
       </c>
@@ -13812,7 +13790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21">
       <c r="A230" s="2">
         <v>41741</v>
       </c>
@@ -13868,7 +13846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21">
       <c r="A231" s="2">
         <v>41741</v>
       </c>
@@ -13924,7 +13902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21">
       <c r="A232" s="2">
         <v>41741</v>
       </c>
@@ -13980,7 +13958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21">
       <c r="A233" s="2">
         <v>41741</v>
       </c>
@@ -14036,7 +14014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21">
       <c r="A234" s="2">
         <v>41741</v>
       </c>
@@ -14092,7 +14070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21">
       <c r="A235" s="2">
         <v>41738</v>
       </c>
@@ -14148,7 +14126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21">
       <c r="A236" s="2">
         <v>41738</v>
       </c>
@@ -14204,7 +14182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21">
       <c r="A237" s="2">
         <v>41738</v>
       </c>
@@ -14263,7 +14241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21">
       <c r="A238" s="2">
         <v>41738</v>
       </c>
@@ -14319,7 +14297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21">
       <c r="A239" s="2">
         <v>41738</v>
       </c>
@@ -14378,7 +14356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21">
       <c r="A240" s="2">
         <v>41738</v>
       </c>
@@ -14437,7 +14415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21">
       <c r="A241" s="2">
         <v>41738</v>
       </c>
@@ -14496,7 +14474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21">
       <c r="A242" s="2">
         <v>41738</v>
       </c>
@@ -14552,7 +14530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21">
       <c r="A243" s="2">
         <v>41738</v>
       </c>
@@ -14608,7 +14586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21">
       <c r="A244" s="2">
         <v>41738</v>
       </c>
@@ -14667,7 +14645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21">
       <c r="A245" s="2">
         <v>41738</v>
       </c>
@@ -14726,7 +14704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21">
       <c r="A246" s="2">
         <v>41738</v>
       </c>
@@ -14785,7 +14763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21">
       <c r="A247" s="2">
         <v>41741</v>
       </c>
@@ -14844,7 +14822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21">
       <c r="A248" s="2">
         <v>41741</v>
       </c>
@@ -14903,7 +14881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21">
       <c r="A249" s="2">
         <v>41741</v>
       </c>
@@ -14962,7 +14940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21">
       <c r="A250" s="2">
         <v>41741</v>
       </c>
@@ -15021,7 +14999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21">
       <c r="A251" s="2">
         <v>41741</v>
       </c>
@@ -15077,7 +15055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21">
       <c r="A252" s="2">
         <v>41741</v>
       </c>
@@ -15136,7 +15114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21">
       <c r="A253" s="2">
         <v>41741</v>
       </c>
@@ -15195,7 +15173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21">
       <c r="A254" s="2">
         <v>41741</v>
       </c>
@@ -15251,7 +15229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21">
       <c r="A255" s="2">
         <v>41741</v>
       </c>
@@ -15310,7 +15288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21">
       <c r="A256" s="2">
         <v>41741</v>
       </c>
@@ -15369,7 +15347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21">
       <c r="A257" s="2">
         <v>41741</v>
       </c>
@@ -15428,7 +15406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21">
       <c r="A258" s="2">
         <v>41740</v>
       </c>
@@ -15484,7 +15462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21">
       <c r="A259" s="2">
         <v>41740</v>
       </c>
@@ -15537,7 +15515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21">
       <c r="A260" s="2">
         <v>41740</v>
       </c>
@@ -15593,7 +15571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21">
       <c r="A261" s="2">
         <v>41740</v>
       </c>
@@ -15649,7 +15627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21">
       <c r="A262" s="2">
         <v>41740</v>
       </c>
@@ -15705,7 +15683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21">
       <c r="A263" s="2">
         <v>41740</v>
       </c>
@@ -15761,7 +15739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21">
       <c r="A264" s="2">
         <v>41740</v>
       </c>
@@ -15817,7 +15795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21">
       <c r="A265" s="2">
         <v>41740</v>
       </c>
@@ -15873,7 +15851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21">
       <c r="A266" s="2">
         <v>41741</v>
       </c>
@@ -15908,7 +15886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21">
       <c r="A267" s="2">
         <v>41741</v>
       </c>
@@ -15967,7 +15945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21">
       <c r="A268" s="2">
         <v>41741</v>
       </c>
@@ -16026,7 +16004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21">
       <c r="A269" s="2">
         <v>41741</v>
       </c>
@@ -16085,7 +16063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21">
       <c r="A270" s="2">
         <v>41741</v>
       </c>
@@ -16144,7 +16122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21">
       <c r="A271" s="2">
         <v>41741</v>
       </c>
@@ -16203,7 +16181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21">
       <c r="A272" s="2">
         <v>41741</v>
       </c>
@@ -16259,7 +16237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21">
       <c r="A273" s="2">
         <v>41741</v>
       </c>
@@ -16315,7 +16293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21">
       <c r="A274" s="2">
         <v>41741</v>
       </c>
@@ -16347,7 +16325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21">
       <c r="A275" s="2">
         <v>41741</v>
       </c>
@@ -16403,7 +16381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21">
       <c r="A276" s="2">
         <v>41741</v>
       </c>
@@ -16462,7 +16440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21">
       <c r="A277" s="2">
         <v>41744</v>
       </c>
@@ -16521,7 +16499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21">
       <c r="A278" s="2">
         <v>41744</v>
       </c>
@@ -16577,7 +16555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21">
       <c r="A279" s="2">
         <v>41744</v>
       </c>
@@ -16633,7 +16611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21">
       <c r="A280" s="2">
         <v>41744</v>
       </c>
@@ -16692,7 +16670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21">
       <c r="A281" s="2">
         <v>41744</v>
       </c>
@@ -16748,7 +16726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21">
       <c r="A282" s="2">
         <v>41744</v>
       </c>
@@ -16804,7 +16782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21">
       <c r="A283" s="2">
         <v>41744</v>
       </c>
@@ -16863,7 +16841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21">
       <c r="A284" s="2">
         <v>41744</v>
       </c>
@@ -16922,7 +16900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21">
       <c r="A285" s="2">
         <v>41744</v>
       </c>
@@ -16954,7 +16932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21">
       <c r="A286" s="2">
         <v>41744</v>
       </c>
@@ -17013,7 +16991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21">
       <c r="A287" s="2">
         <v>41745</v>
       </c>
@@ -17072,7 +17050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21">
       <c r="A288" s="2">
         <v>41745</v>
       </c>
@@ -17128,7 +17106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21">
       <c r="A289" s="2">
         <v>41745</v>
       </c>
@@ -17184,7 +17162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21">
       <c r="A290" s="2">
         <v>41745</v>
       </c>
@@ -17240,7 +17218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21">
       <c r="A291" s="2">
         <v>41745</v>
       </c>
@@ -17299,7 +17277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21">
       <c r="A292" s="2">
         <v>41745</v>
       </c>
@@ -17358,7 +17336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21">
       <c r="A293" s="2">
         <v>41745</v>
       </c>
@@ -17414,7 +17392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21">
       <c r="A294" s="2">
         <v>41745</v>
       </c>
@@ -17473,7 +17451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21">
       <c r="A295" s="2">
         <v>41745</v>
       </c>
@@ -17532,7 +17510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21">
       <c r="A296" s="2">
         <v>41732</v>
       </c>
@@ -17588,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21">
       <c r="A297" s="2">
         <v>41732</v>
       </c>
@@ -17644,7 +17622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21">
       <c r="A298" s="2">
         <v>41732</v>
       </c>
@@ -17700,7 +17678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21">
       <c r="A299" s="2">
         <v>41732</v>
       </c>
@@ -17756,7 +17734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21">
       <c r="A300" s="2">
         <v>41732</v>
       </c>
@@ -17812,7 +17790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21">
       <c r="A301" s="2">
         <v>41732</v>
       </c>
@@ -17868,7 +17846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21">
       <c r="A302" s="2">
         <v>41732</v>
       </c>
@@ -17924,7 +17902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21">
       <c r="A303" s="2">
         <v>41732</v>
       </c>
@@ -17977,7 +17955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21">
       <c r="A304" s="2">
         <v>41732</v>
       </c>
@@ -18033,7 +18011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21">
       <c r="A305" s="2">
         <v>41732</v>
       </c>
@@ -18086,7 +18064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21">
       <c r="A306" s="2">
         <v>41732</v>
       </c>
@@ -18142,7 +18120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21">
       <c r="A307" s="2">
         <v>41732</v>
       </c>
@@ -18195,7 +18173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21">
       <c r="A308" s="2">
         <v>41732</v>
       </c>
@@ -18248,7 +18226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21">
       <c r="A309" s="2">
         <v>41732</v>
       </c>
@@ -18304,7 +18282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21">
       <c r="A310" s="2">
         <v>41732</v>
       </c>
@@ -18360,7 +18338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21">
       <c r="A311" s="2">
         <v>41732</v>
       </c>
@@ -18413,7 +18391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21">
       <c r="A312" s="2">
         <v>41732</v>
       </c>
@@ -18469,7 +18447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21">
       <c r="A313" s="2">
         <v>41732</v>
       </c>
@@ -18525,7 +18503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21">
       <c r="A314" s="2">
         <v>41732</v>
       </c>
@@ -18581,7 +18559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21">
       <c r="A315" s="2">
         <v>41732</v>
       </c>
@@ -18637,7 +18615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21">
       <c r="A316" s="2">
         <v>41732</v>
       </c>
@@ -18693,7 +18671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21">
       <c r="A317" s="2">
         <v>41732</v>
       </c>
@@ -18749,7 +18727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21">
       <c r="A318" s="2">
         <v>41732</v>
       </c>
@@ -18805,7 +18783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21">
       <c r="A319" s="2">
         <v>41732</v>
       </c>
@@ -18861,7 +18839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21">
       <c r="A320" s="2">
         <v>41732</v>
       </c>
@@ -18917,7 +18895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21">
       <c r="A321" s="2">
         <v>41732</v>
       </c>
@@ -18973,7 +18951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21">
       <c r="A322" s="2">
         <v>41732</v>
       </c>
@@ -19029,7 +19007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21">
       <c r="A323" s="2">
         <v>41732</v>
       </c>
@@ -19085,7 +19063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21">
       <c r="A324" s="2">
         <v>41733</v>
       </c>
@@ -19141,7 +19119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21">
       <c r="A325" s="2">
         <v>41733</v>
       </c>
@@ -19200,7 +19178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21">
       <c r="A326" s="2">
         <v>41733</v>
       </c>
@@ -19256,7 +19234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21">
       <c r="A327" s="2">
         <v>41743</v>
       </c>
@@ -19312,7 +19290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21">
       <c r="A328" s="2">
         <v>41743</v>
       </c>
@@ -19368,7 +19346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21">
       <c r="A329" s="2">
         <v>41743</v>
       </c>
@@ -19421,7 +19399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21">
       <c r="A330" s="2">
         <v>41743</v>
       </c>
@@ -19477,7 +19455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21">
       <c r="A331" s="2">
         <v>41743</v>
       </c>
@@ -19530,7 +19508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21">
       <c r="A332" s="2">
         <v>41743</v>
       </c>
@@ -19586,7 +19564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21">
       <c r="A333" s="2">
         <v>41743</v>
       </c>
@@ -19642,7 +19620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21">
       <c r="A334" s="2">
         <v>41743</v>
       </c>
@@ -19698,7 +19676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21">
       <c r="A335" s="2">
         <v>41743</v>
       </c>
@@ -19754,7 +19732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21">
       <c r="A336" s="2">
         <v>41743</v>
       </c>
@@ -19810,7 +19788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21">
       <c r="A337" s="2">
         <v>41743</v>
       </c>
@@ -19866,7 +19844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21">
       <c r="A338" s="2">
         <v>41744</v>
       </c>
@@ -19922,7 +19900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21">
       <c r="A339" s="2">
         <v>41744</v>
       </c>
@@ -19978,7 +19956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21">
       <c r="A340" s="2">
         <v>41744</v>
       </c>
@@ -20034,7 +20012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21">
       <c r="A341" s="2">
         <v>41744</v>
       </c>
@@ -20087,7 +20065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21">
       <c r="A342" s="2">
         <v>41744</v>
       </c>
@@ -20143,7 +20121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21">
       <c r="A343" s="2">
         <v>41744</v>
       </c>
@@ -20199,7 +20177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21">
       <c r="A344" s="2">
         <v>41744</v>
       </c>
@@ -20255,7 +20233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21">
       <c r="A345" s="2">
         <v>41744</v>
       </c>
@@ -20311,7 +20289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21">
       <c r="A346" s="2">
         <v>41744</v>
       </c>
@@ -20367,7 +20345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21">
       <c r="A347" s="2">
         <v>41744</v>
       </c>
@@ -20423,7 +20401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21">
       <c r="A348" s="2">
         <v>41744</v>
       </c>
@@ -20479,7 +20457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21">
       <c r="A349" s="2">
         <v>41744</v>
       </c>
@@ -20535,7 +20513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21">
       <c r="A350" s="2">
         <v>41744</v>
       </c>
@@ -20591,7 +20569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21">
       <c r="A351" s="2">
         <v>41744</v>
       </c>
@@ -20647,7 +20625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21">
       <c r="A352" s="2">
         <v>41744</v>
       </c>
@@ -20703,7 +20681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21">
       <c r="A353" s="2">
         <v>41743</v>
       </c>
@@ -20759,7 +20737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21">
       <c r="A354" s="2">
         <v>41743</v>
       </c>
@@ -20818,7 +20796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21">
       <c r="A355" s="2">
         <v>41743</v>
       </c>
@@ -20874,7 +20852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21">
       <c r="A356" s="2">
         <v>41743</v>
       </c>
@@ -20930,7 +20908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21">
       <c r="A357" s="2">
         <v>41744</v>
       </c>
@@ -20983,7 +20961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21">
       <c r="A358" s="2">
         <v>41744</v>
       </c>
@@ -21039,7 +21017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21">
       <c r="A359" s="2">
         <v>41743</v>
       </c>
@@ -21095,7 +21073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21">
       <c r="A360" s="2">
         <v>41743</v>
       </c>
@@ -21151,7 +21129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21">
       <c r="A361" s="2">
         <v>41744</v>
       </c>
@@ -21204,7 +21182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21">
       <c r="A362" s="2">
         <v>41744</v>
       </c>
@@ -21260,7 +21238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21">
       <c r="A363" s="2">
         <v>41744</v>
       </c>
@@ -21316,7 +21294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21">
       <c r="A364" s="2">
         <v>41744</v>
       </c>
@@ -21372,7 +21350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21">
       <c r="A365" s="2">
         <v>41744</v>
       </c>
@@ -21431,7 +21409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21">
       <c r="A366" s="2">
         <v>41744</v>
       </c>
@@ -21487,7 +21465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21">
       <c r="A367" s="2">
         <v>41745</v>
       </c>
@@ -21540,7 +21518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21">
       <c r="A368" s="2">
         <v>41745</v>
       </c>
@@ -21593,7 +21571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21">
       <c r="A369" s="2">
         <v>41745</v>
       </c>
@@ -21646,7 +21624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21">
       <c r="A370" s="2">
         <v>41745</v>
       </c>
@@ -21702,7 +21680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21">
       <c r="A371" s="2">
         <v>41745</v>
       </c>
@@ -21761,7 +21739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21">
       <c r="A372" s="2">
         <v>41745</v>
       </c>
@@ -21817,7 +21795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21">
       <c r="A373" s="2">
         <v>41745</v>
       </c>
@@ -21870,7 +21848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21">
       <c r="A374" s="2">
         <v>41745</v>
       </c>
@@ -21926,7 +21904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21">
       <c r="A375" s="2">
         <v>41743</v>
       </c>
@@ -21982,7 +21960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21">
       <c r="A376" s="2">
         <v>41743</v>
       </c>
@@ -22038,7 +22016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21">
       <c r="A377" s="2">
         <v>41743</v>
       </c>
@@ -22091,7 +22069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21">
       <c r="A378" s="2">
         <v>41743</v>
       </c>
@@ -22147,7 +22125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21">
       <c r="A379" s="2">
         <v>41743</v>
       </c>
@@ -22203,7 +22181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21">
       <c r="A380" s="2">
         <v>41743</v>
       </c>
@@ -22259,7 +22237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21">
       <c r="A381" s="2">
         <v>41743</v>
       </c>
@@ -22315,7 +22293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21">
       <c r="A382" s="2">
         <v>41743</v>
       </c>
@@ -22371,7 +22349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21">
       <c r="A383" s="2">
         <v>41743</v>
       </c>
@@ -22427,7 +22405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21">
       <c r="A384" s="2">
         <v>41743</v>
       </c>
@@ -22483,7 +22461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21">
       <c r="A385" s="2">
         <v>41743</v>
       </c>
@@ -22539,7 +22517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21">
       <c r="A386" s="2">
         <v>41743</v>
       </c>
@@ -22595,7 +22573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21">
       <c r="A387" s="2">
         <v>41743</v>
       </c>
@@ -22651,7 +22629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21">
       <c r="A388" s="2">
         <v>41744</v>
       </c>
@@ -22707,7 +22685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21">
       <c r="A389" s="2">
         <v>41744</v>
       </c>
@@ -22763,7 +22741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21">
       <c r="A390" s="2">
         <v>41744</v>
       </c>
@@ -22819,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21">
       <c r="A391" s="2">
         <v>41744</v>
       </c>
@@ -22875,7 +22853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21">
       <c r="A392" s="2">
         <v>41744</v>
       </c>
@@ -22931,7 +22909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21">
       <c r="A393" s="2">
         <v>41744</v>
       </c>
@@ -22987,7 +22965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21">
       <c r="A394" s="2">
         <v>41744</v>
       </c>
@@ -23043,7 +23021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21">
       <c r="A395" s="2">
         <v>41744</v>
       </c>
@@ -23099,7 +23077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21">
       <c r="A396" s="2">
         <v>41744</v>
       </c>
@@ -23152,7 +23130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21">
       <c r="A397" s="2">
         <v>41744</v>
       </c>
@@ -23205,7 +23183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21">
       <c r="A398" s="2">
         <v>41744</v>
       </c>
@@ -23261,7 +23239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21">
       <c r="A399" s="2">
         <v>41745</v>
       </c>
@@ -23317,7 +23295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21">
       <c r="A400" s="2">
         <v>41745</v>
       </c>
@@ -23373,7 +23351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21">
       <c r="A401" s="2">
         <v>41745</v>
       </c>
@@ -23429,7 +23407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21">
       <c r="A402" s="2">
         <v>41745</v>
       </c>
@@ -23485,7 +23463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21">
       <c r="A403" s="2">
         <v>41745</v>
       </c>
@@ -23541,7 +23519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21">
       <c r="A404" s="2">
         <v>41745</v>
       </c>
@@ -23597,7 +23575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21">
       <c r="A405" s="2">
         <v>41745</v>
       </c>
@@ -23653,7 +23631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21">
       <c r="A406" s="2">
         <v>41745</v>
       </c>
@@ -23709,7 +23687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21">
       <c r="A407" s="2">
         <v>41745</v>
       </c>
@@ -23765,7 +23743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21">
       <c r="A408" s="2">
         <v>41745</v>
       </c>
@@ -23821,7 +23799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21">
       <c r="A409" s="2">
         <v>41745</v>
       </c>
@@ -23877,7 +23855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21">
       <c r="A410" s="2">
         <v>41745</v>
       </c>
@@ -23933,7 +23911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21">
       <c r="A411" s="2">
         <v>41745</v>
       </c>
@@ -23989,7 +23967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21">
       <c r="A412" s="2">
         <v>41745</v>
       </c>
@@ -24045,7 +24023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21">
       <c r="A413" s="2">
         <v>41745</v>
       </c>
@@ -24101,7 +24079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21">
       <c r="A414" s="2">
         <v>41745</v>
       </c>
@@ -24160,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21">
       <c r="A415" s="2">
         <v>41745</v>
       </c>
@@ -24216,7 +24194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21">
       <c r="A416" s="2">
         <v>41745</v>
       </c>
@@ -24272,7 +24250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21">
       <c r="A417" s="2">
         <v>41745</v>
       </c>
@@ -24331,7 +24309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21">
       <c r="A418" s="2">
         <v>41745</v>
       </c>
@@ -24390,7 +24368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21">
       <c r="A419" s="2">
         <v>41745</v>
       </c>
@@ -24449,7 +24427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21">
       <c r="A420" s="2">
         <v>41745</v>
       </c>
@@ -24505,7 +24483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21">
       <c r="A421" s="2">
         <v>41744</v>
       </c>
@@ -24561,7 +24539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21">
       <c r="A422" s="2">
         <v>41744</v>
       </c>
@@ -24617,7 +24595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21">
       <c r="A423" s="2">
         <v>41744</v>
       </c>
@@ -24673,7 +24651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21">
       <c r="A424" s="2">
         <v>41744</v>
       </c>
@@ -24729,7 +24707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21">
       <c r="A425" s="2">
         <v>41744</v>
       </c>
@@ -24785,7 +24763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21">
       <c r="A426" s="2">
         <v>41744</v>
       </c>
@@ -24841,7 +24819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21">
       <c r="A427" s="2">
         <v>41744</v>
       </c>
@@ -24897,7 +24875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21">
       <c r="A428" s="2">
         <v>41744</v>
       </c>
@@ -24953,7 +24931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21">
       <c r="A429" s="2">
         <v>41744</v>
       </c>
@@ -25009,7 +24987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21">
       <c r="A430" s="2">
         <v>41731</v>
       </c>
@@ -25065,7 +25043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21">
       <c r="A431" s="2">
         <v>41731</v>
       </c>
@@ -25121,7 +25099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21">
       <c r="A432" s="2">
         <v>41731</v>
       </c>
@@ -25177,7 +25155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21">
       <c r="A433" s="2">
         <v>41731</v>
       </c>
@@ -25230,7 +25208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21">
       <c r="A434" s="2">
         <v>41731</v>
       </c>
@@ -25286,7 +25264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21">
       <c r="A435" s="2">
         <v>41731</v>
       </c>
@@ -25342,7 +25320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21">
       <c r="A436" s="2">
         <v>41731</v>
       </c>
@@ -25401,7 +25379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21">
       <c r="A437" s="2">
         <v>41747</v>
       </c>
@@ -25454,7 +25432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21">
       <c r="A438" s="2">
         <v>41747</v>
       </c>
@@ -25510,7 +25488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21">
       <c r="A439" s="2">
         <v>41747</v>
       </c>
@@ -25566,7 +25544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21">
       <c r="A440" s="2">
         <v>41747</v>
       </c>
@@ -25622,7 +25600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21">
       <c r="A441" s="2">
         <v>41747</v>
       </c>
@@ -25678,7 +25656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21">
       <c r="A442" s="2">
         <v>41747</v>
       </c>
@@ -25734,7 +25712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21">
       <c r="A443" s="2">
         <v>41747</v>
       </c>
@@ -25790,7 +25768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21">
       <c r="A444" s="2">
         <v>41747</v>
       </c>
@@ -25846,7 +25824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21">
       <c r="A445" s="2">
         <v>41747</v>
       </c>
@@ -25902,7 +25880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21">
       <c r="A446" s="2">
         <v>41747</v>
       </c>
@@ -25961,7 +25939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21">
       <c r="A447" s="2">
         <v>41747</v>
       </c>
@@ -26017,7 +25995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21">
       <c r="A448" s="2">
         <v>41747</v>
       </c>
@@ -26073,7 +26051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21">
       <c r="A449" s="2">
         <v>41747</v>
       </c>
@@ -26129,7 +26107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21">
       <c r="A450" s="2">
         <v>41746</v>
       </c>
@@ -26185,7 +26163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21">
       <c r="A451" s="2">
         <v>41746</v>
       </c>
@@ -26241,7 +26219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21">
       <c r="A452" s="2">
         <v>41746</v>
       </c>
@@ -26297,7 +26275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21">
       <c r="A453" s="2">
         <v>41746</v>
       </c>
@@ -26353,7 +26331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21">
       <c r="A454" s="2">
         <v>41746</v>
       </c>
@@ -26409,7 +26387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21">
       <c r="A455" s="2">
         <v>41746</v>
       </c>
@@ -26465,7 +26443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21">
       <c r="A456" s="2">
         <v>41746</v>
       </c>
@@ -26521,7 +26499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21">
       <c r="A457" s="2">
         <v>41746</v>
       </c>
@@ -26577,7 +26555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21">
       <c r="A458" s="2">
         <v>41746</v>
       </c>
@@ -26630,7 +26608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21">
       <c r="A459" s="2">
         <v>41746</v>
       </c>
@@ -26683,7 +26661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21">
       <c r="A460" s="2">
         <v>41747</v>
       </c>
@@ -26739,7 +26717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21">
       <c r="A461" s="2">
         <v>41747</v>
       </c>
@@ -26795,7 +26773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21">
       <c r="A462" s="2">
         <v>41747</v>
       </c>
@@ -26851,7 +26829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21">
       <c r="A463" s="2">
         <v>41747</v>
       </c>
@@ -26907,7 +26885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21">
       <c r="A464" s="2">
         <v>41747</v>
       </c>
@@ -26963,7 +26941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21">
       <c r="A465" s="2">
         <v>41747</v>
       </c>
@@ -27019,7 +26997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21">
       <c r="A466" s="2">
         <v>41747</v>
       </c>
@@ -27075,7 +27053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21">
       <c r="A467" s="2">
         <v>41733</v>
       </c>
@@ -27131,7 +27109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21">
       <c r="A468" s="2">
         <v>41733</v>
       </c>
@@ -27187,7 +27165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21">
       <c r="A469" s="2">
         <v>41746</v>
       </c>
@@ -27240,7 +27218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21">
       <c r="A470" s="2">
         <v>41733</v>
       </c>
@@ -27296,7 +27274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21">
       <c r="A471" s="2">
         <v>41733</v>
       </c>
@@ -27352,7 +27330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21">
       <c r="A472" s="2">
         <v>41733</v>
       </c>
@@ -27405,7 +27383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" s="7" customFormat="1">
       <c r="A473" s="8">
         <v>41733</v>
       </c>
@@ -27461,7 +27439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21">
       <c r="A474" s="2">
         <v>41733</v>
       </c>
@@ -27517,7 +27495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21">
       <c r="A475" s="2">
         <v>41733</v>
       </c>
@@ -27573,7 +27551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21">
       <c r="A476" s="2">
         <v>41733</v>
       </c>
@@ -27623,7 +27601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21">
       <c r="A477" s="2">
         <v>41733</v>
       </c>
@@ -27679,7 +27657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21">
       <c r="A478" s="2">
         <v>41746</v>
       </c>
@@ -27735,7 +27713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21">
       <c r="A479" s="2">
         <v>41746</v>
       </c>
@@ -27794,7 +27772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21">
       <c r="A480" s="2">
         <v>41746</v>
       </c>
@@ -27850,7 +27828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21">
       <c r="A481" s="2">
         <v>41746</v>
       </c>
@@ -27906,7 +27884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21">
       <c r="A482" s="2">
         <v>41733</v>
       </c>
@@ -27962,7 +27940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21">
       <c r="A483" s="2">
         <v>41733</v>
       </c>
@@ -28021,7 +27999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21">
       <c r="A484" s="2">
         <v>41746</v>
       </c>
@@ -28080,7 +28058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21">
       <c r="A485" s="2">
         <v>41746</v>
       </c>
@@ -28136,7 +28114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21">
       <c r="A486" s="2">
         <v>41746</v>
       </c>
@@ -28192,7 +28170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21">
       <c r="A487" s="2">
         <v>41733</v>
       </c>
@@ -28251,7 +28229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21">
       <c r="A488" s="2">
         <v>41733</v>
       </c>
@@ -28304,7 +28282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21">
       <c r="A489" s="2">
         <v>41746</v>
       </c>
@@ -28360,7 +28338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21">
       <c r="A490" s="2">
         <v>41733</v>
       </c>
@@ -28416,7 +28394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21">
       <c r="A491" s="2">
         <v>41733</v>
       </c>
@@ -28472,7 +28450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21">
       <c r="A492" s="2">
         <v>41733</v>
       </c>
@@ -28528,7 +28506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21">
       <c r="A493" s="2">
         <v>41733</v>
       </c>
@@ -28581,7 +28559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21">
       <c r="A494" s="2">
         <v>41733</v>
       </c>
@@ -28637,7 +28615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21">
       <c r="A495" s="2">
         <v>41733</v>
       </c>
@@ -28693,7 +28671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21">
       <c r="A496" s="2">
         <v>41733</v>
       </c>
@@ -28749,7 +28727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21">
       <c r="A497" s="2">
         <v>41733</v>
       </c>
@@ -28805,7 +28783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21">
       <c r="A498" s="2">
         <v>41733</v>
       </c>
@@ -28861,7 +28839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21">
       <c r="A499" s="2">
         <v>41733</v>
       </c>
@@ -28917,7 +28895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21">
       <c r="A500" s="2">
         <v>41733</v>
       </c>
@@ -28973,7 +28951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21">
       <c r="A501" s="2">
         <v>41733</v>
       </c>
@@ -29029,7 +29007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21">
       <c r="A502" s="2">
         <v>41733</v>
       </c>
@@ -29085,7 +29063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21">
       <c r="A503" s="2">
         <v>41733</v>
       </c>
@@ -29141,7 +29119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21">
       <c r="A504" s="2">
         <v>41733</v>
       </c>
@@ -29197,7 +29175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21">
       <c r="A505" s="2">
         <v>41733</v>
       </c>
@@ -29253,7 +29231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21">
       <c r="A506" s="2">
         <v>41733</v>
       </c>
@@ -29309,7 +29287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21">
       <c r="A507" s="2">
         <v>41733</v>
       </c>
@@ -29365,7 +29343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21">
       <c r="A508" s="2">
         <v>41733</v>
       </c>
@@ -29421,7 +29399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21">
       <c r="A509" s="2">
         <v>41733</v>
       </c>
@@ -29477,7 +29455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21">
       <c r="A510" s="2">
         <v>41729</v>
       </c>
@@ -29536,7 +29514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21">
       <c r="A511" s="2">
         <v>41729</v>
       </c>
@@ -29592,7 +29570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21">
       <c r="A512" s="2">
         <v>41729</v>
       </c>
@@ -29648,7 +29626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21">
       <c r="A513" s="2">
         <v>41729</v>
       </c>
@@ -29704,7 +29682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21">
       <c r="A514" s="2">
         <v>41729</v>
       </c>
@@ -29763,7 +29741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21">
       <c r="A515" s="2">
         <v>41729</v>
       </c>
@@ -29822,7 +29800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21">
       <c r="A516" s="2">
         <v>41729</v>
       </c>
@@ -29878,7 +29856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21">
       <c r="A517" s="2">
         <v>41729</v>
       </c>
@@ -29931,7 +29909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21">
       <c r="A518" s="2">
         <v>41729</v>
       </c>
@@ -29987,7 +29965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21">
       <c r="A519" s="2">
         <v>41729</v>
       </c>
@@ -30043,7 +30021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21">
       <c r="A520" s="2">
         <v>41729</v>
       </c>
@@ -30096,7 +30074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21">
       <c r="A521" s="2">
         <v>41729</v>
       </c>
@@ -30146,7 +30124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21">
       <c r="A522" s="2">
         <v>41729</v>
       </c>
@@ -30205,7 +30183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21">
       <c r="A523" s="2">
         <v>41729</v>
       </c>
@@ -30261,7 +30239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21">
       <c r="A524" s="2">
         <v>41729</v>
       </c>
@@ -30320,7 +30298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21">
       <c r="A525" s="2">
         <v>41729</v>
       </c>
@@ -30379,7 +30357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21">
       <c r="A526" s="2">
         <v>41729</v>
       </c>
@@ -30438,7 +30416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21">
       <c r="A527" s="2">
         <v>41729</v>
       </c>
@@ -30494,7 +30472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21">
       <c r="A528" s="2">
         <v>41748</v>
       </c>
@@ -30550,7 +30528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21">
       <c r="A529" s="2">
         <v>41729</v>
       </c>
@@ -30606,7 +30584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21">
       <c r="A530" s="2">
         <v>41729</v>
       </c>
@@ -30659,7 +30637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21">
       <c r="A531" s="2">
         <v>41729</v>
       </c>
@@ -30712,7 +30690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21">
       <c r="A532" s="2">
         <v>41748</v>
       </c>
@@ -30765,7 +30743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21">
       <c r="A533" s="2">
         <v>41729</v>
       </c>
@@ -30821,7 +30799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21">
       <c r="A534" s="2">
         <v>41729</v>
       </c>
@@ -30877,7 +30855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21">
       <c r="A535" s="2">
         <v>41729</v>
       </c>
@@ -30933,7 +30911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21">
       <c r="A536" s="2">
         <v>41729</v>
       </c>
@@ -30989,7 +30967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21">
       <c r="A537" s="2">
         <v>41729</v>
       </c>
@@ -31042,7 +31020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21">
       <c r="A538" s="2">
         <v>41729</v>
       </c>
@@ -31098,7 +31076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21">
       <c r="A539" s="2">
         <v>41729</v>
       </c>
@@ -31154,7 +31132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21">
       <c r="A540" s="2">
         <v>41746</v>
       </c>
@@ -31210,7 +31188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21">
       <c r="A541" s="2">
         <v>41729</v>
       </c>
@@ -31263,7 +31241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21">
       <c r="A542" s="2">
         <v>41729</v>
       </c>
@@ -31319,7 +31297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21">
       <c r="A543" s="2">
         <v>41746</v>
       </c>
@@ -31372,7 +31350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21">
       <c r="A544" s="2">
         <v>41729</v>
       </c>
@@ -31425,7 +31403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21">
       <c r="A545" s="2">
         <v>41746</v>
       </c>
@@ -31484,7 +31462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21">
       <c r="A546" s="2">
         <v>41746</v>
       </c>
@@ -31540,7 +31518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21">
       <c r="A547" s="2">
         <v>41746</v>
       </c>
@@ -31596,7 +31574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21">
       <c r="A548" s="2">
         <v>41730</v>
       </c>
@@ -31655,7 +31633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21">
       <c r="A549" s="2">
         <v>41730</v>
       </c>
@@ -31711,7 +31689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21">
       <c r="A550" s="2">
         <v>41730</v>
       </c>
@@ -31767,7 +31745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21">
       <c r="A551" s="2">
         <v>41730</v>
       </c>
@@ -31823,7 +31801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21">
       <c r="A552" s="2">
         <v>41730</v>
       </c>
@@ -31879,7 +31857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21">
       <c r="A553" s="2">
         <v>41730</v>
       </c>
@@ -31938,7 +31916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21">
       <c r="A554" s="2">
         <v>41730</v>
       </c>
@@ -31997,7 +31975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21">
       <c r="A555" s="2">
         <v>41731</v>
       </c>
@@ -32053,7 +32031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21">
       <c r="A556" s="2">
         <v>41731</v>
       </c>
@@ -32106,7 +32084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21">
       <c r="A557" s="2">
         <v>41747</v>
       </c>
@@ -32162,7 +32140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21">
       <c r="A558" s="2">
         <v>41731</v>
       </c>
@@ -32218,7 +32196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21">
       <c r="A559" s="2">
         <v>41747</v>
       </c>
@@ -32277,7 +32255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21">
       <c r="A560" s="2">
         <v>41747</v>
       </c>
@@ -32333,7 +32311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:21">
       <c r="A561" s="2">
         <v>41747</v>
       </c>
@@ -32389,7 +32367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21">
       <c r="A562" s="2">
         <v>41731</v>
       </c>
@@ -32442,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:21">
       <c r="A563" s="2">
         <v>41730</v>
       </c>
@@ -32501,7 +32479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:21">
       <c r="A564" s="2">
         <v>41730</v>
       </c>
@@ -32560,7 +32538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:21">
       <c r="A565" s="2">
         <v>41730</v>
       </c>
@@ -32619,7 +32597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:21">
       <c r="A566" s="2">
         <v>41748</v>
       </c>
@@ -32675,7 +32653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:21">
       <c r="A567" s="2">
         <v>41730</v>
       </c>
@@ -32734,7 +32712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:21">
       <c r="A568" s="2">
         <v>41748</v>
       </c>
@@ -32793,7 +32771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:21">
       <c r="A569" s="2">
         <v>41731</v>
       </c>
@@ -32849,7 +32827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:21">
       <c r="A570" s="2">
         <v>41731</v>
       </c>
@@ -32908,7 +32886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:21">
       <c r="A571" s="2">
         <v>41731</v>
       </c>
@@ -32958,7 +32936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21">
       <c r="A572" s="2">
         <v>41731</v>
       </c>
@@ -33014,7 +32992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:21">
       <c r="A573" s="2">
         <v>41731</v>
       </c>
@@ -33073,7 +33051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21">
       <c r="A574" s="2">
         <v>41731</v>
       </c>
@@ -33132,7 +33110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:21">
       <c r="A575" s="2">
         <v>41731</v>
       </c>
@@ -33188,7 +33166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21">
       <c r="A576" s="2">
         <v>41731</v>
       </c>
@@ -33244,7 +33222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:21">
       <c r="A577" s="2">
         <v>41731</v>
       </c>
@@ -33303,7 +33281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:21">
       <c r="A578" s="2">
         <v>41731</v>
       </c>
@@ -33359,7 +33337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:21">
       <c r="A579" s="2">
         <v>41731</v>
       </c>
@@ -33418,7 +33396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:21">
       <c r="A580" s="2">
         <v>41731</v>
       </c>
@@ -33477,7 +33455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:21">
       <c r="A581" s="2">
         <v>41731</v>
       </c>
@@ -33536,7 +33514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:21">
       <c r="A582" s="2">
         <v>41731</v>
       </c>
@@ -33595,7 +33573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:21">
       <c r="A583" s="2">
         <v>41730</v>
       </c>
@@ -33651,7 +33629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:21">
       <c r="A584" s="2">
         <v>41730</v>
       </c>
@@ -33710,7 +33688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:21">
       <c r="A585" s="2">
         <v>41730</v>
       </c>
@@ -33760,7 +33738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:21">
       <c r="A586" s="2">
         <v>41730</v>
       </c>
@@ -33816,7 +33794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:21">
       <c r="A587" s="2">
         <v>41730</v>
       </c>
@@ -33872,7 +33850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:21">
       <c r="A588" s="2">
         <v>41730</v>
       </c>
@@ -33928,7 +33906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:21">
       <c r="A589" s="2">
         <v>41730</v>
       </c>
@@ -33984,7 +33962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:21">
       <c r="A590" s="2">
         <v>41730</v>
       </c>
@@ -34043,7 +34021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:21">
       <c r="A591" s="2">
         <v>41730</v>
       </c>
@@ -34096,7 +34074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:21">
       <c r="A592" s="2">
         <v>41730</v>
       </c>
@@ -34149,7 +34127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:21">
       <c r="A593" s="2">
         <v>41730</v>
       </c>
@@ -34202,7 +34180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:21">
       <c r="A594" s="2">
         <v>41730</v>
       </c>
@@ -34258,7 +34236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:21">
       <c r="A595" s="2">
         <v>41730</v>
       </c>
@@ -34314,7 +34292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:21">
       <c r="A596" s="2">
         <v>41730</v>
       </c>
@@ -34370,7 +34348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="597" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:21" s="7" customFormat="1">
       <c r="A597" s="8">
         <v>41731</v>
       </c>
@@ -34426,7 +34404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:21">
       <c r="A598" s="2">
         <v>41731</v>
       </c>
@@ -34482,7 +34460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:21">
       <c r="A599" s="2">
         <v>41731</v>
       </c>
@@ -34538,7 +34516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:21">
       <c r="A600" s="2">
         <v>41731</v>
       </c>
@@ -34594,7 +34572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:21">
       <c r="A601" s="2">
         <v>41731</v>
       </c>
@@ -34650,7 +34628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:21">
       <c r="A602" s="2">
         <v>41731</v>
       </c>
@@ -34706,7 +34684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:21">
       <c r="A603" s="2">
         <v>41731</v>
       </c>
@@ -34762,7 +34740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:21">
       <c r="A604" s="2">
         <v>41734</v>
       </c>
@@ -34818,7 +34796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:21">
       <c r="A605" s="2">
         <v>41734</v>
       </c>
@@ -34874,7 +34852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:21">
       <c r="A606" s="2">
         <v>41734</v>
       </c>
@@ -34933,7 +34911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:21">
       <c r="A607" s="2">
         <v>41734</v>
       </c>
@@ -34989,7 +34967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:21">
       <c r="A608" s="2">
         <v>41734</v>
       </c>
@@ -35048,7 +35026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:21">
       <c r="A609" s="2">
         <v>41734</v>
       </c>
@@ -35104,7 +35082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:21">
       <c r="A610" s="2">
         <v>41734</v>
       </c>
@@ -35163,7 +35141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:21">
       <c r="A611" s="2">
         <v>41734</v>
       </c>
@@ -35219,7 +35197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:21">
       <c r="A612" s="2">
         <v>41734</v>
       </c>
@@ -35275,7 +35253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:21">
       <c r="A613" s="2">
         <v>41734</v>
       </c>
@@ -35331,7 +35309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:21">
       <c r="A614" s="2">
         <v>41734</v>
       </c>
@@ -35390,7 +35368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:21">
       <c r="A615" s="2">
         <v>41734</v>
       </c>
@@ -35446,7 +35424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:21">
       <c r="A616" s="2">
         <v>41734</v>
       </c>
@@ -35502,7 +35480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:21">
       <c r="A617" s="2">
         <v>41734</v>
       </c>
@@ -35561,7 +35539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:21">
       <c r="A618" s="2">
         <v>41734</v>
       </c>
@@ -35617,7 +35595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:21">
       <c r="A619" s="2">
         <v>41734</v>
       </c>
@@ -35673,7 +35651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:21">
       <c r="A620" s="2">
         <v>41734</v>
       </c>
@@ -35729,7 +35707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:21">
       <c r="A621" s="2">
         <v>41734</v>
       </c>
@@ -35779,7 +35757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:21">
       <c r="A622" s="2">
         <v>41734</v>
       </c>
@@ -35835,7 +35813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:21">
       <c r="A623" s="2">
         <v>41734</v>
       </c>
@@ -35891,7 +35869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:21">
       <c r="A624" s="2">
         <v>41734</v>
       </c>
@@ -35947,7 +35925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:21">
       <c r="A625" s="2">
         <v>41734</v>
       </c>
@@ -36003,7 +35981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:21">
       <c r="A626" s="2">
         <v>41734</v>
       </c>
@@ -36056,7 +36034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:21">
       <c r="A627" s="2">
         <v>41734</v>
       </c>
@@ -36112,7 +36090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:21">
       <c r="A628" s="2">
         <v>41734</v>
       </c>
@@ -36168,7 +36146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:21">
       <c r="A629" s="2">
         <v>41734</v>
       </c>
@@ -36224,7 +36202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:21">
       <c r="A630" s="2">
         <v>41734</v>
       </c>
@@ -36280,7 +36258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:21">
       <c r="A631" s="2">
         <v>41734</v>
       </c>
@@ -36336,7 +36314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:21">
       <c r="A632" s="2">
         <v>41753</v>
       </c>
@@ -36392,7 +36370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:21">
       <c r="A633" s="2">
         <v>41753</v>
       </c>
@@ -36445,7 +36423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:21">
       <c r="A634" s="2">
         <v>41753</v>
       </c>
@@ -36498,7 +36476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:21">
       <c r="A635" s="2">
         <v>41753</v>
       </c>
@@ -36551,7 +36529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:21">
       <c r="A636" s="2">
         <v>41753</v>
       </c>
@@ -36604,7 +36582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:21">
       <c r="A637" s="2">
         <v>41753</v>
       </c>
@@ -36657,7 +36635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:21">
       <c r="A638" s="2">
         <v>41753</v>
       </c>
@@ -36710,7 +36688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:21">
       <c r="A639" s="2">
         <v>41753</v>
       </c>
@@ -36763,7 +36741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:21">
       <c r="A640" s="2">
         <v>41747</v>
       </c>
@@ -36822,7 +36800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:21">
       <c r="A641" s="2">
         <v>41747</v>
       </c>
@@ -36878,7 +36856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:21">
       <c r="A642" s="2">
         <v>41747</v>
       </c>
@@ -36934,7 +36912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:21">
       <c r="A643" s="2">
         <v>41747</v>
       </c>
@@ -36990,7 +36968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:21">
       <c r="A644" s="2">
         <v>41747</v>
       </c>
@@ -37046,7 +37024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:21">
       <c r="A645" s="2">
         <v>41747</v>
       </c>
@@ -37102,7 +37080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:21">
       <c r="A646" s="2">
         <v>41747</v>
       </c>
@@ -37158,7 +37136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:21">
       <c r="A647" s="2">
         <v>41747</v>
       </c>
@@ -37214,7 +37192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:21">
       <c r="A648" s="2">
         <v>41747</v>
       </c>
@@ -37270,7 +37248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:21">
       <c r="A649" s="2">
         <v>41747</v>
       </c>
@@ -37329,7 +37307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="650" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:21">
       <c r="A650" s="2">
         <v>41747</v>
       </c>
@@ -37385,7 +37363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:21">
       <c r="A651" s="2">
         <v>41747</v>
       </c>
@@ -37441,7 +37419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:21">
       <c r="A652" s="2">
         <v>41747</v>
       </c>
@@ -37497,7 +37475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:21">
       <c r="A653" s="2">
         <v>41747</v>
       </c>
@@ -37553,7 +37531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:21">
       <c r="A654" s="2">
         <v>41747</v>
       </c>
@@ -37609,7 +37587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:21">
       <c r="A655" s="2">
         <v>41747</v>
       </c>
@@ -37665,7 +37643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:21">
       <c r="A656" s="2">
         <v>41747</v>
       </c>
@@ -37724,7 +37702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:21">
       <c r="A657" s="2">
         <v>41747</v>
       </c>
@@ -37780,7 +37758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:21">
       <c r="A658" s="2">
         <v>41753</v>
       </c>
@@ -37836,7 +37814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:21">
       <c r="A659" s="2">
         <v>41753</v>
       </c>
@@ -37892,7 +37870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:21">
       <c r="A660" s="2">
         <v>41753</v>
       </c>
@@ -37948,7 +37926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:21">
       <c r="A661" s="2">
         <v>41753</v>
       </c>
@@ -38004,7 +37982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:21">
       <c r="A662" s="2">
         <v>41753</v>
       </c>
@@ -38060,7 +38038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:21">
       <c r="A663" s="2">
         <v>41753</v>
       </c>
@@ -38119,7 +38097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:21">
       <c r="A664" s="2">
         <v>41753</v>
       </c>
@@ -38175,7 +38153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:21">
       <c r="A665" s="2">
         <v>41753</v>
       </c>
@@ -38231,7 +38209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="666" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:21">
       <c r="A666" s="2">
         <v>41753</v>
       </c>
@@ -38287,7 +38265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:21">
       <c r="A667" s="2">
         <v>41753</v>
       </c>
@@ -38343,7 +38321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:21">
       <c r="A668" s="2">
         <v>41753</v>
       </c>
@@ -38396,7 +38374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:21">
       <c r="A669" s="2">
         <v>41753</v>
       </c>
@@ -38452,7 +38430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:21">
       <c r="A670" s="2">
         <v>41753</v>
       </c>
@@ -38508,7 +38486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:21">
       <c r="A671" s="2">
         <v>41753</v>
       </c>
@@ -38564,7 +38542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:21">
       <c r="A672" s="2">
         <v>41753</v>
       </c>
@@ -38620,7 +38598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:21">
       <c r="A673" s="2">
         <v>41753</v>
       </c>
@@ -38676,7 +38654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:21">
       <c r="A674" s="2">
         <v>41753</v>
       </c>
@@ -38729,7 +38707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:21">
       <c r="A675" s="2">
         <v>41753</v>
       </c>
@@ -38785,7 +38763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:21">
       <c r="A676" s="2">
         <v>41753</v>
       </c>
@@ -38841,7 +38819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:21">
       <c r="A677" s="2">
         <v>41753</v>
       </c>
@@ -38897,7 +38875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:21">
       <c r="A678" s="2">
         <v>41753</v>
       </c>
@@ -38953,7 +38931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:21">
       <c r="A679" s="2">
         <v>41753</v>
       </c>
@@ -39009,7 +38987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:21">
       <c r="A680" s="2">
         <v>41753</v>
       </c>
@@ -39062,7 +39040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:21">
       <c r="A681" s="2">
         <v>41753</v>
       </c>
@@ -39115,7 +39093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:21">
       <c r="A682" s="2">
         <v>41753</v>
       </c>
@@ -39171,7 +39149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:21">
       <c r="A683" s="2">
         <v>41741</v>
       </c>
@@ -39227,7 +39205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:21">
       <c r="A684" s="2">
         <v>41741</v>
       </c>
@@ -39283,7 +39261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:21">
       <c r="A685" s="2">
         <v>41741</v>
       </c>
@@ -39339,7 +39317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:21">
       <c r="A686" s="2">
         <v>41741</v>
       </c>
@@ -39395,7 +39373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:21">
       <c r="A687" s="2">
         <v>41741</v>
       </c>
@@ -39451,7 +39429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:21">
       <c r="A688" s="2">
         <v>41741</v>
       </c>
@@ -39507,7 +39485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:21">
       <c r="A689" s="2">
         <v>41741</v>
       </c>
@@ -39563,7 +39541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="690" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:21">
       <c r="A690" s="2">
         <v>41741</v>
       </c>
@@ -39619,7 +39597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:21">
       <c r="A691" s="2">
         <v>41744</v>
       </c>
@@ -39675,7 +39653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:21">
       <c r="A692" s="2">
         <v>41744</v>
       </c>
@@ -39734,7 +39712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:21">
       <c r="A693" s="2">
         <v>41744</v>
       </c>
@@ -39790,7 +39768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:21">
       <c r="A694" s="2">
         <v>41744</v>
       </c>
@@ -39849,7 +39827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:21">
       <c r="A695" s="2">
         <v>41744</v>
       </c>
@@ -39893,7 +39871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:21">
       <c r="A696" s="2">
         <v>41744</v>
       </c>
@@ -39949,7 +39927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="697" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:21">
       <c r="A697" s="2">
         <v>41744</v>
       </c>
@@ -40008,7 +39986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="698" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:21">
       <c r="A698" s="2">
         <v>41744</v>
       </c>
@@ -40067,7 +40045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:21">
       <c r="A699" s="2">
         <v>41744</v>
       </c>
@@ -40126,7 +40104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="700" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:21">
       <c r="A700" s="2">
         <v>41745</v>
       </c>
@@ -40182,7 +40160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:21">
       <c r="A701" s="2">
         <v>41745</v>
       </c>
@@ -40238,7 +40216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:21">
       <c r="A702" s="2">
         <v>41745</v>
       </c>
@@ -40294,7 +40272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:21">
       <c r="A703" s="2">
         <v>41745</v>
       </c>
@@ -40350,7 +40328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:21">
       <c r="A704" s="2">
         <v>41745</v>
       </c>
@@ -40406,7 +40384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:21">
       <c r="A705" s="2">
         <v>41745</v>
       </c>
@@ -40459,7 +40437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:21">
       <c r="A706" s="2">
         <v>41745</v>
       </c>
@@ -40515,7 +40493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:21">
       <c r="A707" s="2">
         <v>41745</v>
       </c>
@@ -40568,7 +40546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:21">
       <c r="A708" s="2">
         <v>41743</v>
       </c>
@@ -40624,7 +40602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="709" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:21">
       <c r="A709" s="2">
         <v>41743</v>
       </c>
@@ -40683,7 +40661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:21">
       <c r="A710" s="2">
         <v>41743</v>
       </c>
@@ -40739,7 +40717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:21">
       <c r="A711" s="2">
         <v>41743</v>
       </c>
@@ -40795,7 +40773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:21">
       <c r="A712" s="2">
         <v>41743</v>
       </c>
@@ -40851,7 +40829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:21">
       <c r="A713" s="2">
         <v>41743</v>
       </c>
@@ -40907,7 +40885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:21">
       <c r="A714" s="2">
         <v>41746</v>
       </c>
@@ -40963,7 +40941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:21">
       <c r="A715" s="2">
         <v>41746</v>
       </c>
@@ -41019,7 +40997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="716" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:21">
       <c r="A716" s="2">
         <v>41746</v>
       </c>
@@ -41075,7 +41053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="717" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:21">
       <c r="A717" s="2">
         <v>41746</v>
       </c>
@@ -41131,7 +41109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:21">
       <c r="A718" s="2">
         <v>41746</v>
       </c>
@@ -41187,7 +41165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="719" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:21">
       <c r="A719" s="2">
         <v>41746</v>
       </c>
@@ -41246,7 +41224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:21">
       <c r="A720" s="2">
         <v>41746</v>
       </c>
@@ -41305,7 +41283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="721" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:21">
       <c r="A721" s="2">
         <v>41746</v>
       </c>
@@ -41364,7 +41342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:21">
       <c r="A722" s="2">
         <v>41748</v>
       </c>
@@ -41417,7 +41395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:21">
       <c r="A723" s="2">
         <v>41748</v>
       </c>
@@ -41473,7 +41451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="724" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:21">
       <c r="A724" s="2">
         <v>41748</v>
       </c>
@@ -41532,7 +41510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="725" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:21">
       <c r="A725" s="2">
         <v>41748</v>
       </c>
@@ -41588,7 +41566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:21">
       <c r="A726" s="2">
         <v>41748</v>
       </c>
@@ -41644,7 +41622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="727" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:21">
       <c r="A727" s="2">
         <v>41748</v>
       </c>
@@ -41700,7 +41678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:21">
       <c r="A728" s="2">
         <v>41748</v>
       </c>
@@ -41756,7 +41734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:21">
       <c r="A729" s="2">
         <v>41748</v>
       </c>
@@ -41815,7 +41793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="730" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:21">
       <c r="A730" s="2">
         <v>41748</v>
       </c>
@@ -41871,7 +41849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="731" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:21">
       <c r="A731" s="2">
         <v>41748</v>
       </c>
@@ -41927,7 +41905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="732" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:21">
       <c r="A732" s="2">
         <v>41748</v>
       </c>
@@ -41983,7 +41961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="733" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:21">
       <c r="A733" s="2">
         <v>41748</v>
       </c>
@@ -42039,7 +42017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="734" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:21">
       <c r="A734" s="2">
         <v>41748</v>
       </c>
@@ -42095,7 +42073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:21">
       <c r="A735" s="2">
         <v>41748</v>
       </c>
@@ -42151,7 +42129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:21">
       <c r="A736" s="2">
         <v>41748</v>
       </c>
@@ -42207,7 +42185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:21">
       <c r="A737" s="2">
         <v>41748</v>
       </c>
@@ -42263,24 +42241,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:21">
       <c r="A738" s="2"/>
     </row>
-    <row r="739" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:21">
       <c r="A739" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U737">
-    <sortState ref="A295:U299">
-      <sortCondition ref="E3:E737"/>
-    </sortState>
-  </autoFilter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A3:U737"/>
   <mergeCells count="2">
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -42288,13 +42269,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4">
       <c r="C4">
         <f>380/727</f>
         <v>0.52269601100412655</v>
@@ -42304,13 +42285,19 @@
         <v>52.269601100412658</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4">
       <c r="D6" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test/SMART/MOTHER.xlsx
+++ b/test/SMART/MOTHER.xlsx
@@ -402,7 +402,7 @@
     <t>CHARGE PROBLEME</t>
   </si>
   <si>
-    <t>@related_household@</t>
+    <t>@INVALID_HOUSEHOLD@</t>
   </si>
   <si>
     <t>MISSING HOUSEHOLD</t>
